--- a/NDLM_Tier2_Template.xlsx
+++ b/NDLM_Tier2_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcsol\Documents\Python\ENARSI\vEdge_To_cEdge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.wellpoint.com/personal/al93633_ad_wellpoint_com/Documents/Documents/Python Projects/Caremore vEdge to cEdge/vEdge_To_cEdge/vEdge to cEdge Implementation Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE07E7D9-C9B3-4C4F-9A43-C4E8CB812D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{DE07E7D9-C9B3-4C4F-9A43-C4E8CB812D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9ABDA5F-EE95-4770-9B46-3D76A805D223}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2099B645-DA47-4F1A-966C-491014E9BF7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2099B645-DA47-4F1A-966C-491014E9BF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>SDWAN Tier 2 Site</t>
   </si>
@@ -147,9 +147,6 @@
     <t>core (cFlowd Enabled)(PC/NFA)</t>
   </si>
   <si>
-    <t>Primary Broadband (ATT)  Router/Interface </t>
-  </si>
-  <si>
     <t xml:space="preserve">cedge2-host cedge2-tloc3-port </t>
   </si>
   <si>
@@ -193,6 +190,27 @@
   </si>
   <si>
     <t>cedge2-host gi0/0/2 | sw-host sw-cedge2-mpls-port</t>
+  </si>
+  <si>
+    <t>Primary MPLS (Lumen) Switch/Router/Interface</t>
+  </si>
+  <si>
+    <t>Speed In/Out (bps):  30K / 30K</t>
+  </si>
+  <si>
+    <t>Speed In/Out (bps):  50K / 50K</t>
+  </si>
+  <si>
+    <t>sw-host - sw-cedge1-mpls-port</t>
+  </si>
+  <si>
+    <t>Primary Broadband (TPX)  Switch/Router/Interface</t>
+  </si>
+  <si>
+    <t>Primary Broadband (TPX)  Router/Interface </t>
+  </si>
+  <si>
+    <t>cedge2-host - cedge2-tloc3-port</t>
   </si>
 </sst>
 </file>
@@ -307,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -336,13 +354,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,21 +694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688187AE-9A59-40E0-A7EA-BB629720F547}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="29.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -715,7 +730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -726,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -737,18 +752,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -759,7 +774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -770,18 +785,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -792,18 +807,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -814,134 +829,153 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="C18" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -949,6 +983,78 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocIdPersistId xmlns="177d56f3-2775-4638-be99-38f892282111" xsi:nil="true"/>
+    <_dlc_DocId xmlns="177d56f3-2775-4638-be99-38f892282111">CMTYVJAADK5M-1477745756-15516</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="177d56f3-2775-4638-be99-38f892282111">
+      <Url>https://collaborate.wellpoint.com/sites/Enterprise-Netw/_layouts/15/DocIdRedir.aspx?ID=CMTYVJAADK5M-1477745756-15516</Url>
+      <Description>CMTYVJAADK5M-1477745756-15516</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7520CBE6EF609429891F72CE4CF80D8" ma:contentTypeVersion="40" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20512b26ab918a4ff0cc63f6d8baf999">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="177d56f3-2775-4638-be99-38f892282111" xmlns:ns3="275c014b-06ee-4cac-b414-b71bb96e596b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf267a5599540a42359ad4771decf15a" ns2:_="" ns3:_="">
     <xsd:import namespace="177d56f3-2775-4638-be99-38f892282111"/>
@@ -1194,79 +1300,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6B3B853-297D-40DB-9E19-0022FE007C36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="177d56f3-2775-4638-be99-38f892282111"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30EFF59D-AD48-4E4F-9B35-50AE57571095}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocIdPersistId xmlns="177d56f3-2775-4638-be99-38f892282111" xsi:nil="true"/>
-    <_dlc_DocId xmlns="177d56f3-2775-4638-be99-38f892282111">CMTYVJAADK5M-1477745756-15516</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="177d56f3-2775-4638-be99-38f892282111">
-      <Url>https://collaborate.wellpoint.com/sites/Enterprise-Netw/_layouts/15/DocIdRedir.aspx?ID=CMTYVJAADK5M-1477745756-15516</Url>
-      <Description>CMTYVJAADK5M-1477745756-15516</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8BCB3-18B4-4E1C-9479-6EAE91327BFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E383411B-CD63-4A54-8EC4-84C55A7B6034}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1283,30 +1343,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8BCB3-18B4-4E1C-9479-6EAE91327BFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30EFF59D-AD48-4E4F-9B35-50AE57571095}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6B3B853-297D-40DB-9E19-0022FE007C36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="177d56f3-2775-4638-be99-38f892282111"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/NDLM_Tier2_Template.xlsx
+++ b/NDLM_Tier2_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.wellpoint.com/personal/al93633_ad_wellpoint_com/Documents/Documents/Python Projects/Caremore vEdge to cEdge/vEdge_To_cEdge/vEdge to cEdge Implementation Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.wellpoint.com/personal/al93633_ad_wellpoint_com/Documents/Documents/Python Projects/vEdge_To_cEdge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{DE07E7D9-C9B3-4C4F-9A43-C4E8CB812D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9ABDA5F-EE95-4770-9B46-3D76A805D223}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{DE07E7D9-C9B3-4C4F-9A43-C4E8CB812D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42BD26DF-A633-49DB-85BF-B29E06144075}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2099B645-DA47-4F1A-966C-491014E9BF7B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>SDWAN Tier 2 Site</t>
   </si>
@@ -72,9 +72,6 @@
     <t>C8300-1N1S-4T2X</t>
   </si>
   <si>
-    <t>Gi0/0/3 -to- Gi0/0/3</t>
-  </si>
-  <si>
     <t>vManage Site ID</t>
   </si>
   <si>
@@ -138,18 +135,6 @@
     <t>cEdge #2 - Model </t>
   </si>
   <si>
-    <t>Primary MPLS (Lumen) Switch/Router/Interface </t>
-  </si>
-  <si>
-    <t>sw-host sw-mpls-port</t>
-  </si>
-  <si>
-    <t>core (cFlowd Enabled)(PC/NFA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedge2-host cedge2-tloc3-port </t>
-  </si>
-  <si>
     <t>cedge sdw-04 (cFlowd Enabled)(PC/NFA)</t>
   </si>
   <si>
@@ -162,12 +147,6 @@
     <t>cEdge SDW-04 - LAN-1 Interface </t>
   </si>
   <si>
-    <t xml:space="preserve">cEdge SDW-03 - LUM Interface </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cEdge SDW-04 - LUM Interface </t>
-  </si>
-  <si>
     <t>city, state</t>
   </si>
   <si>
@@ -177,40 +156,43 @@
     <t>cedge2-host | cedge2-loop </t>
   </si>
   <si>
-    <t>cedge1-host gi0/0/0 | sw-host sw-cedge1-port</t>
-  </si>
-  <si>
-    <t>cedge2-host gi0/0/0 | sw-host sw-cedge2-port</t>
-  </si>
-  <si>
-    <t>cedge2-host gi0/0/1</t>
-  </si>
-  <si>
-    <t>cedge1-host gi0/0/2 | sw-host sw-cedge1-mpls-port</t>
-  </si>
-  <si>
-    <t>cedge2-host gi0/0/2 | sw-host sw-cedge2-mpls-port</t>
-  </si>
-  <si>
     <t>Primary MPLS (Lumen) Switch/Router/Interface</t>
   </si>
   <si>
-    <t>Speed In/Out (bps):  30K / 30K</t>
-  </si>
-  <si>
-    <t>Speed In/Out (bps):  50K / 50K</t>
-  </si>
-  <si>
     <t>sw-host - sw-cedge1-mpls-port</t>
   </si>
   <si>
-    <t>Primary Broadband (TPX)  Switch/Router/Interface</t>
-  </si>
-  <si>
-    <t>Primary Broadband (TPX)  Router/Interface </t>
-  </si>
-  <si>
     <t>cedge2-host - cedge2-tloc3-port</t>
+  </si>
+  <si>
+    <t>cEdge SDW-03 – LAN-1 Interface Connects to</t>
+  </si>
+  <si>
+    <t>sw-host sw-cedge1-mpls-port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cEdge SDW-04 – LAN-1 Interface Connects to </t>
+  </si>
+  <si>
+    <t>sw-host sw-cedge2-mpls-port</t>
+  </si>
+  <si>
+    <t>Speed In/Out (bps): mpls-speedK / mpls-speedK</t>
+  </si>
+  <si>
+    <t>Primary Broadband (bb1-carrier) Switch/Router/Interface</t>
+  </si>
+  <si>
+    <t>Speed In/Out (bps):  bb1-up-speedK / bb1-down-speedK</t>
+  </si>
+  <si>
+    <t>cedge1-host gi0/0/0</t>
+  </si>
+  <si>
+    <t>cedge2-host gi0/0/0</t>
+  </si>
+  <si>
+    <t>Gi0/0/3 to Gi0/0/3</t>
   </si>
 </sst>
 </file>
@@ -375,6 +357,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,17 +680,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688187AE-9A59-40E0-A7EA-BB629720F547}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
@@ -713,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -721,13 +707,13 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -735,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -746,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -757,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -765,217 +751,195 @@
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -983,78 +947,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocIdPersistId xmlns="177d56f3-2775-4638-be99-38f892282111" xsi:nil="true"/>
-    <_dlc_DocId xmlns="177d56f3-2775-4638-be99-38f892282111">CMTYVJAADK5M-1477745756-15516</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="177d56f3-2775-4638-be99-38f892282111">
-      <Url>https://collaborate.wellpoint.com/sites/Enterprise-Netw/_layouts/15/DocIdRedir.aspx?ID=CMTYVJAADK5M-1477745756-15516</Url>
-      <Description>CMTYVJAADK5M-1477745756-15516</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7520CBE6EF609429891F72CE4CF80D8" ma:contentTypeVersion="40" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20512b26ab918a4ff0cc63f6d8baf999">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="177d56f3-2775-4638-be99-38f892282111" xmlns:ns3="275c014b-06ee-4cac-b414-b71bb96e596b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf267a5599540a42359ad4771decf15a" ns2:_="" ns3:_="">
     <xsd:import namespace="177d56f3-2775-4638-be99-38f892282111"/>
@@ -1300,33 +1192,79 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6B3B853-297D-40DB-9E19-0022FE007C36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="177d56f3-2775-4638-be99-38f892282111"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30EFF59D-AD48-4E4F-9B35-50AE57571095}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8BCB3-18B4-4E1C-9479-6EAE91327BFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocIdPersistId xmlns="177d56f3-2775-4638-be99-38f892282111" xsi:nil="true"/>
+    <_dlc_DocId xmlns="177d56f3-2775-4638-be99-38f892282111">CMTYVJAADK5M-1477745756-15516</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="177d56f3-2775-4638-be99-38f892282111">
+      <Url>https://collaborate.wellpoint.com/sites/Enterprise-Netw/_layouts/15/DocIdRedir.aspx?ID=CMTYVJAADK5M-1477745756-15516</Url>
+      <Description>CMTYVJAADK5M-1477745756-15516</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E383411B-CD63-4A54-8EC4-84C55A7B6034}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1343,4 +1281,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8BCB3-18B4-4E1C-9479-6EAE91327BFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30EFF59D-AD48-4E4F-9B35-50AE57571095}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6B3B853-297D-40DB-9E19-0022FE007C36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="177d56f3-2775-4638-be99-38f892282111"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>